--- a/test/report/sample1/負荷試験レポート.xlsx
+++ b/test/report/sample1/負荷試験レポート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\umejima\work\public\test\report\sample1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EAC379-4AE9-4BA0-A33B-95C7D2AEAB9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105B73F2-016A-4F34-B96F-5859A14305FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="22290" windowHeight="11535" xr2:uid="{F5058D9B-9B64-4624-9DDB-33BDAEDBC440}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5058D9B-9B64-4624-9DDB-33BDAEDBC440}"/>
   </bookViews>
   <sheets>
     <sheet name="20200209" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>[目的]</t>
     <rPh sb="1" eb="3">
@@ -310,19 +310,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Swap が全然発生しないほど余裕</t>
-    <rPh sb="6" eb="8">
-      <t>ゼンゼン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヨユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[結論]</t>
     <rPh sb="1" eb="3">
       <t>ケツロン</t>
@@ -351,6 +338,171 @@
   </si>
   <si>
     <t>t2.medium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sy が低い = ユーザに費やされたCPU時間が多い(カーネル以外) ので、</t>
+    <rPh sb="4" eb="5">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーション側の処理で何か起こっているように見える</t>
+    <rPh sb="8" eb="9">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Swap などは発生していない</t>
+    <rPh sb="8" eb="10">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU 使用率</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id が低い = 持機となっているCPU時間の比率が低い (max 100)</t>
+    <rPh sb="4" eb="5">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒリツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリ使用率</t>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[CPU 利用率]</t>
+    <rPh sb="5" eb="7">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディスクIO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wa が低い =I/O 処理の完了を待っていた時間が低いので、</t>
+    <rPh sb="4" eb="5">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IO も全然使ってない</t>
+    <rPh sb="4" eb="6">
+      <t>ゼンゼン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワークIO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帯域に引っかかるほどの Network I/O はない</t>
+    <rPh sb="0" eb="2">
+      <t>タイイキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ネットワーク IN/OUT (バイト数)]</t>
+    <rPh sb="19" eb="20">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS メトリクス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ AWS いわく低～中だが、5Mバイト単位の通信が続いた程度でといった感じ。</t>
+    <rPh sb="9" eb="10">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -358,7 +510,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,21 +541,50 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -412,7 +593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,6 +601,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -445,7 +635,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7716327" cy="3353268"/>
@@ -484,7 +674,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12565229" cy="2876951"/>
@@ -522,9 +712,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="10974332" cy="4534533"/>
     <xdr:pic>
@@ -548,7 +738,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2019300" y="28422600"/>
+          <a:off x="1838325" y="10029825"/>
           <a:ext cx="10974332" cy="4534533"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -558,6 +748,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>325009</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C813143A-9C2E-41C2-876B-B071B5BF28E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10334625" y="10077450"/>
+          <a:ext cx="8306959" cy="704948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>582382</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>38843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A69708-D66C-4A56-8EF5-12000CCF8EDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13287375" y="11934825"/>
+          <a:ext cx="9726382" cy="5325218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -858,15 +1136,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6B88DF-83B0-4C1E-BF82-CD81FCA4449E}">
-  <dimension ref="B2:Q99"/>
+  <dimension ref="B2:U125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="14.125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
@@ -971,52 +1251,121 @@
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B38" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="39" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B40" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="Q43" s="2" t="s">
-        <v>22</v>
+      <c r="Q43" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.4">
       <c r="Q44" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="Q45" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="Q46" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.4">
       <c r="Q47" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="Q48" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q50" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q53" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q54" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q55" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q58" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q59" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q60" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q63" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q64" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="Q66" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E75" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="5:21" x14ac:dyDescent="0.4">
+      <c r="E77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B123" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B97" s="1" t="s">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B124" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B98" s="1" t="s">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B125" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B99" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
